--- a/data/industry/CFM/Index.xlsx
+++ b/data/industry/CFM/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AEFDFC-2B56-4011-B3C0-F0142C47FAD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3652B52C-AAE2-4E06-BFB3-BD46F2E1381D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>Flash Wafer</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -397,6 +397,9 @@
   <si>
     <t>NAND Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTC+8</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="183" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -471,7 +474,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -479,20 +482,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -504,10 +507,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2085,13 +2088,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C738F-C0D7-48DA-9F8D-241372DE5FE0}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2801,6 +2804,26 @@
       </c>
       <c r="F32" s="3">
         <v>2229.8200000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>46049</v>
+      </c>
+      <c r="B33" s="6">
+        <v>46049</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3132.82</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2521.86</v>
       </c>
     </row>
   </sheetData>

--- a/data/industry/CFM/Index.xlsx
+++ b/data/industry/CFM/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3652B52C-AAE2-4E06-BFB3-BD46F2E1381D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9208B3-8EE9-46CC-B324-5FD39846C580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
   <si>
     <t>Flash Wafer</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2088,13 +2088,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C738F-C0D7-48DA-9F8D-241372DE5FE0}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2824,6 +2824,26 @@
       </c>
       <c r="F33" s="3">
         <v>2521.86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>46056</v>
+      </c>
+      <c r="B34" s="6">
+        <v>46056</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3213.44</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2567.14</v>
       </c>
     </row>
   </sheetData>
